--- a/Descargas/R15_Juzgado De Garantia De Colina_Ingresos Causas Por Materia_2020-Abríl.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Colina_Ingresos Causas Por Materia_2020-Abríl.xlsx
@@ -311,7 +311,7 @@
         </is>
       </c>
       <c r="B11" s="65">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B44" s="65">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45">
